--- a/additional_experiments/cifar_dirichlet_server8/results.xlsx
+++ b/additional_experiments/cifar_dirichlet_server8/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Documents\GitHub\FLSim\additional_experiments\cifar_dirichlet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Documents\GitHub\FLSim\additional_experiments\cifar_dirichlet_server8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A13546-9EFA-453E-8256-CACB019A4623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F42CB-B13F-4FB3-A5D7-AB6E5B0DBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0480BD0-FD3B-47B3-8709-724D203C8353}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
   <si>
     <t>server qsgd bits</t>
   </si>
@@ -124,6 +124,9 @@
   <si>
     <t>bytes downloaded</t>
   </si>
+  <si>
+    <t>Client uploads (thousands)</t>
+  </si>
 </sst>
 </file>
 
@@ -150,15 +153,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,13 +175,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,31 +533,31 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>qsgd 2</c:v>
+                    <c:v>qsgd 8</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>qsgd 2</c:v>
+                    <c:v>qsgd 4</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>qsgd 2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>qsgd 4</c:v>
+                    <c:v>qsgd 8</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>qsgd 4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>qsgd 4</c:v>
+                    <c:v>qsgd 2</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>qsgd 8</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>qsgd 8</c:v>
+                    <c:v>qsgd 4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>qsgd 8</c:v>
+                    <c:v>qsgd 2</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -542,25 +565,25 @@
                     <c:v>8-bit client</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4-bit client</c:v>
+                    <c:v>8-bit client</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2-bit client</c:v>
+                    <c:v>8-bit client</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8-bit client</c:v>
+                    <c:v>4-bit client</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>4-bit client</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>4-bit client</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>2-bit client</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8-bit client</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>4-bit client</c:v>
+                    <c:v>2-bit client</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>2-bit client</c:v>
@@ -576,31 +599,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27.556666666666668</c:v>
+                  <c:v>64.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.773333333333333</c:v>
+                  <c:v>67.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.656666666666666</c:v>
+                  <c:v>98.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.65</c:v>
+                  <c:v>55.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.806666666666668</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.653333333333336</c:v>
+                  <c:v>114.83333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.596666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.553333333333327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,31 +961,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>824.60569333333342</c:v>
+                  <c:v>2075.3933333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>457.91386666666665</c:v>
+                  <c:v>1115.3093333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289.1042533333333</c:v>
+                  <c:v>855.62066666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1152.97172</c:v>
+                  <c:v>1677.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>427.66653333333335</c:v>
+                  <c:v>1267.146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>305.29322666666667</c:v>
+                  <c:v>1000.8873333333332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1753.4466533333332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1146.6302666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>744.71979999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,13 +1244,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27.556666666666668</c:v>
+                  <c:v>207.53933333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.773333333333333</c:v>
+                  <c:v>111.53093333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.656666666666666</c:v>
+                  <c:v>85.562066666666681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,13 +1309,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>39.65</c:v>
+                  <c:v>167.75200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.806666666666668</c:v>
+                  <c:v>126.7146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.653333333333336</c:v>
+                  <c:v>100.08873333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,13 +1374,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>58.596666666666664</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.553333333333327</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,13 +1440,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.056666666666668</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.056666666666668</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.056666666666668</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,13 +1788,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>824.60569333333342</c:v>
+                  <c:v>207.53933333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>609.81700000000001</c:v>
+                  <c:v>167.75200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475.10177333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,13 +1860,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>890.93722666666667</c:v>
+                  <c:v>111.53093333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427.66653333333335</c:v>
+                  <c:v>126.7146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.47842666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,13 +1925,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1066.9900933333333</c:v>
+                  <c:v>85.562066666666681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>579.10826666666674</c:v>
+                  <c:v>100.08873333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>744.71979999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,13 +1991,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3051.9652533333333</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3051.9652533333333</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3051.9652533333333</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,8 +2109,14 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>MB uploaded</a:t>
+                  <a:t>MB Broadcasted</a:t>
                 </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2304,13 +2333,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>824.60569333333342</c:v>
+                  <c:v>207.53933333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>890.93722666666667</c:v>
+                  <c:v>111.53093333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1066.9900933333333</c:v>
+                  <c:v>85.562066666666681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,13 +2405,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>609.81700000000001</c:v>
+                  <c:v>167.75200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427.66653333333335</c:v>
+                  <c:v>126.7146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>579.10826666666674</c:v>
+                  <c:v>100.08873333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,13 +2470,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>475.10177333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604.47842666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>744.71979999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,13 +2536,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3051.9652533333333</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3051.9652533333333</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3051.9652533333333</c:v>
+                  <c:v>758.25600000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5649,7 +5678,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B44F990B-7145-4D1D-BD18-F0F43704BF60}" name="Table2" displayName="Table2" ref="N18:P27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="N18:P27" xr:uid="{B44F990B-7145-4D1D-BD18-F0F43704BF60}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N19:P27">
-    <sortCondition ref="O18:O27"/>
+    <sortCondition descending="1" ref="N18:N27"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C8B6FC92-9158-4625-BAAB-EEE48433DD74}" name="client qsgd bits" dataDxfId="7"/>
@@ -5975,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A108EE6-3E1B-4A89-A28E-C5695062FD69}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="L18" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,16 +6018,17 @@
     <col min="9" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="19.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6050,21 +6080,33 @@
       <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="e">
+      <c r="C2" s="1">
+        <v>56500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>74500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F2" s="1">
         <f>AVERAGE(C2:E2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" s="1" t="e">
+        <v>64333.333333333336</v>
+      </c>
+      <c r="G2" s="1">
         <f>_xlfn.STDEV.S(C2:E2)</f>
-        <v>#DIV/0!</v>
+        <v>9224.0627346811234</v>
       </c>
       <c r="K2" s="1">
         <v>8</v>
@@ -6073,49 +6115,65 @@
         <v>8</v>
       </c>
       <c r="M2" s="1">
-        <v>26180</v>
+        <f>C2</f>
+        <v>56500</v>
       </c>
       <c r="N2" s="1">
-        <v>32920</v>
+        <f t="shared" ref="N2:O2" si="0">D2</f>
+        <v>74500</v>
       </c>
       <c r="O2" s="1">
-        <v>23570</v>
+        <f t="shared" si="0"/>
+        <v>62000</v>
       </c>
       <c r="P2" s="1">
         <f>AVERAGE(M2:O2)</f>
-        <v>27556.666666666668</v>
+        <v>64333.333333333336</v>
       </c>
       <c r="Q2" s="1">
         <f>_xlfn.STDEV.S(M2:O2)</f>
-        <v>4824.6277922066956</v>
+        <v>9224.0627346811234</v>
       </c>
       <c r="R2" s="1">
         <f>P2*C15</f>
-        <v>824605693.33333337</v>
+        <v>2075393333.3333335</v>
       </c>
       <c r="S2" s="1">
         <f>P2*C15/1000000</f>
-        <v>824.60569333333342</v>
+        <v>2075.3933333333334</v>
       </c>
       <c r="T2" s="1">
         <f>R2/10000000</f>
-        <v>82.460569333333339</v>
+        <v>207.53933333333336</v>
+      </c>
+      <c r="U2" s="1">
+        <f>P2/1000</f>
+        <v>64.333333333333343</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="e">
+      <c r="C3" s="1">
+        <v>66000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>49000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F3" s="1">
         <f>AVERAGE(C3:E3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="1" t="e">
+        <v>55666.666666666664</v>
+      </c>
+      <c r="G3" s="1">
         <f>_xlfn.STDEV.S(C3:E3)</f>
-        <v>#DIV/0!</v>
+        <v>9073.7717258774483</v>
       </c>
       <c r="K3" s="1">
         <v>8</v>
@@ -6124,49 +6182,65 @@
         <v>4</v>
       </c>
       <c r="M3" s="1">
-        <v>28800</v>
+        <f>C5</f>
+        <v>66000</v>
       </c>
       <c r="N3" s="1">
-        <v>27600</v>
+        <f t="shared" ref="N3:O3" si="1">D5</f>
+        <v>60000</v>
       </c>
       <c r="O3" s="1">
-        <v>32920</v>
+        <f t="shared" si="1"/>
+        <v>76000</v>
       </c>
       <c r="P3" s="1">
         <f>AVERAGE(M3:O3)</f>
-        <v>29773.333333333332</v>
+        <v>67333.333333333328</v>
       </c>
       <c r="Q3" s="1">
         <f>_xlfn.STDEV.S(M3:O3)</f>
-        <v>2790.364372861246</v>
+        <v>8082.9037686547608</v>
       </c>
       <c r="R3" s="1">
         <f>P3*C16</f>
-        <v>457913866.66666663</v>
+        <v>1115309333.3333333</v>
       </c>
       <c r="S3" s="1">
         <f>P3*C15/1000000</f>
-        <v>890.93722666666667</v>
+        <v>2172.1733333333332</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T10" si="0">R3/10000000</f>
-        <v>45.791386666666661</v>
+        <f t="shared" ref="T3:T10" si="2">R3/10000000</f>
+        <v>111.53093333333332</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U10" si="3">P3/1000</f>
+        <v>67.333333333333329</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="e">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <f>AVERAGE(C4:E4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <f>_xlfn.STDEV.S(C4:E4)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>8</v>
@@ -6175,49 +6249,65 @@
         <v>2</v>
       </c>
       <c r="M4" s="1">
-        <v>26930</v>
+        <f>C8</f>
+        <v>169500</v>
       </c>
       <c r="N4" s="1">
-        <v>27680</v>
+        <f t="shared" ref="N4:O4" si="4">D8</f>
+        <v>53500</v>
       </c>
       <c r="O4" s="1">
-        <v>52360</v>
+        <f t="shared" si="4"/>
+        <v>71500</v>
       </c>
       <c r="P4" s="1">
         <f>AVERAGE(M4:O4)</f>
-        <v>35656.666666666664</v>
+        <v>98166.666666666672</v>
       </c>
       <c r="Q4" s="1">
         <f>_xlfn.STDEV.S(M4:O4)</f>
-        <v>14470.370877532243</v>
+        <v>62428.625912583833</v>
       </c>
       <c r="R4" s="1">
         <f>P4*C17</f>
-        <v>289104253.33333331</v>
+        <v>855620666.66666675</v>
       </c>
       <c r="S4" s="1">
         <f>P4*C15/1000000</f>
-        <v>1066.9900933333333</v>
+        <v>3166.856666666667</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>28.910425333333333</v>
+        <f t="shared" si="2"/>
+        <v>85.562066666666681</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="3"/>
+        <v>98.166666666666671</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="e">
-        <f t="shared" ref="F5:F10" si="1">AVERAGE(C5:E5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="1" t="e">
-        <f t="shared" ref="G5:G10" si="2">_xlfn.STDEV.S(C5:E5)</f>
-        <v>#DIV/0!</v>
+      <c r="C5" s="1">
+        <v>66000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>76000</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="5">AVERAGE(C5:E5)</f>
+        <v>67333.333333333328</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="6">_xlfn.STDEV.S(C5:E5)</f>
+        <v>8082.9037686547608</v>
       </c>
       <c r="K5" s="1">
         <v>4</v>
@@ -6226,49 +6316,65 @@
         <v>8</v>
       </c>
       <c r="M5" s="1">
-        <v>43390</v>
+        <f>C3</f>
+        <v>66000</v>
       </c>
       <c r="N5" s="1">
-        <v>37030</v>
+        <f t="shared" ref="N5:O5" si="7">D3</f>
+        <v>49000</v>
       </c>
       <c r="O5" s="1">
-        <v>38530</v>
+        <f t="shared" si="7"/>
+        <v>52000</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5:P10" si="3">AVERAGE(M5:O5)</f>
-        <v>39650</v>
+        <f t="shared" ref="P5:P10" si="8">AVERAGE(M5:O5)</f>
+        <v>55666.666666666664</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" ref="Q5:Q10" si="4">_xlfn.STDEV.S(M5:O5)</f>
-        <v>3324.6353183469614</v>
+        <f t="shared" ref="Q5:Q10" si="9">_xlfn.STDEV.S(M5:O5)</f>
+        <v>9073.7717258774483</v>
       </c>
       <c r="R5" s="1">
         <f>O5*C15</f>
-        <v>1152971720</v>
+        <v>1677520000</v>
       </c>
       <c r="S5" s="1">
         <f>P5*C16/1000000</f>
-        <v>609.81700000000001</v>
+        <v>922.06266666666659</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="0"/>
-        <v>115.297172</v>
+        <f t="shared" si="2"/>
+        <v>167.75200000000001</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="3"/>
+        <v>55.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>63000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>66500</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="5"/>
+        <v>76500</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="6"/>
+        <v>20426.698215815497</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
@@ -6277,49 +6383,65 @@
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <v>39650</v>
+        <f>C6</f>
+        <v>100000</v>
       </c>
       <c r="N6" s="1">
-        <v>23570</v>
+        <f t="shared" ref="N6:O6" si="10">D6</f>
+        <v>63000</v>
       </c>
       <c r="O6" s="1">
-        <v>20200</v>
+        <f t="shared" si="10"/>
+        <v>66500</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="3"/>
-        <v>27806.666666666668</v>
+        <f t="shared" si="8"/>
+        <v>76500</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="4"/>
-        <v>10394.115322302965</v>
+        <f t="shared" si="9"/>
+        <v>20426.698215815497</v>
       </c>
       <c r="R6" s="1">
         <f>P6*C16</f>
-        <v>427666533.33333337</v>
+        <v>1267146000</v>
       </c>
       <c r="S6" s="1">
         <f>P6*C16/1000000</f>
-        <v>427.66653333333335</v>
+        <v>1267.146</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>42.766653333333338</v>
+        <f t="shared" si="2"/>
+        <v>126.7146</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="3"/>
+        <v>76.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -6328,49 +6450,65 @@
         <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>29550</v>
+        <f>C9</f>
+        <v>154000</v>
       </c>
       <c r="N7" s="1">
-        <v>35910</v>
+        <f t="shared" ref="N7:O7" si="11">D9</f>
+        <v>101000</v>
       </c>
       <c r="O7" s="1">
-        <v>47500</v>
+        <f t="shared" si="11"/>
+        <v>89500</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>37653.333333333336</v>
+        <f t="shared" si="8"/>
+        <v>114833.33333333333</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="4"/>
-        <v>9101.1006660366766</v>
+        <f t="shared" si="9"/>
+        <v>34403.245970886703</v>
       </c>
       <c r="R7" s="1">
         <f>P7*C17</f>
-        <v>305293226.66666669</v>
+        <v>1000887333.3333333</v>
       </c>
       <c r="S7" s="1">
         <f>P7*C16/1000000</f>
-        <v>579.10826666666674</v>
+        <v>1902.0993333333333</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>30.529322666666669</v>
+        <f t="shared" si="2"/>
+        <v>100.08873333333332</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="3"/>
+        <v>114.83333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C8" s="1">
+        <v>169500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>53500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>71500</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="5"/>
+        <v>98166.666666666672</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="6"/>
+        <v>62428.625912583833</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
@@ -6379,49 +6517,65 @@
         <v>8</v>
       </c>
       <c r="M8" s="1">
-        <v>57600</v>
+        <f>C4</f>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>66200</v>
+        <f t="shared" ref="N8:O8" si="12">D4</f>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>51990</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="3"/>
-        <v>58596.666666666664</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>7157.2364312864029</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <f>P8*C15</f>
-        <v>1753446653.3333333</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <f>P8*C17/1000000</f>
-        <v>475.10177333333331</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="0"/>
-        <v>175.34466533333332</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C9" s="1">
+        <v>154000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>101000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>89500</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="5"/>
+        <v>114833.33333333333</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="6"/>
+        <v>34403.245970886703</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -6430,49 +6584,65 @@
         <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>70320</v>
+        <f>C7</f>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>112200</v>
+        <f t="shared" ref="N9:O9" si="13">D7</f>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>41140</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="3"/>
-        <v>74553.333333333328</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="4"/>
-        <v>35718.646857535532</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <f>C16*P9</f>
-        <v>1146630266.6666665</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <f>P9*C17/1000000</f>
-        <v>604.47842666666668</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="0"/>
-        <v>114.66302666666665</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
@@ -6481,36 +6651,43 @@
         <v>2</v>
       </c>
       <c r="M10" s="1">
-        <v>127160</v>
+        <f>C10</f>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>90040</v>
+        <f t="shared" ref="N10:O10" si="14">D10</f>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>58350</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="3"/>
-        <v>91850</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="4"/>
-        <v>34440.689598206365</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <f>P10*C17</f>
-        <v>744719800</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <f>P10*C17/1000000</f>
-        <v>744.71979999999996</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" si="0"/>
-        <v>74.471980000000002</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
         <v>2</v>
       </c>
@@ -6536,12 +6713,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>117128</v>
+        <v>126376</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
@@ -6553,43 +6730,43 @@
         <v>56000</v>
       </c>
       <c r="J14" s="1">
-        <v>92500</v>
+        <v>71500</v>
       </c>
       <c r="K14" s="1">
         <f>AVERAGE(H14:J14)</f>
-        <v>67000</v>
+        <v>60000</v>
       </c>
       <c r="L14" s="1">
         <f>_xlfn.STDEV.S(H14:J14)</f>
-        <v>22152.877916875721</v>
+        <v>10111.874208078341</v>
       </c>
       <c r="M14" s="1">
         <f>K14*C14</f>
-        <v>7847576000</v>
+        <v>7582560000</v>
       </c>
       <c r="N14" s="1">
         <f>M14/1000000</f>
-        <v>7847.576</v>
+        <v>7582.56</v>
       </c>
       <c r="O14" s="1">
         <f>N14/10</f>
-        <v>784.75760000000002</v>
+        <v>758.25600000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
-        <v>29924</v>
+        <v>32260</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
-        <v>15380</v>
+      <c r="C16">
+        <v>16564</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -6597,7 +6774,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>8108</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6637,11 +6814,11 @@
         <v>13</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19:P27" si="5">P2/1000</f>
-        <v>27.556666666666668</v>
+        <f t="shared" ref="P19:P27" si="15">P2/1000</f>
+        <v>64.333333333333343</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>23</v>
@@ -6650,10 +6827,12 @@
         <v>10</v>
       </c>
       <c r="T19" s="1">
-        <v>27.556666666666668</v>
+        <f>T2</f>
+        <v>207.53933333333336</v>
       </c>
       <c r="U19" s="1">
-        <v>26.056666666666668</v>
+        <f>$O$14</f>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6673,18 +6852,18 @@
         <v>7</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:I28" si="6">R2/1000000</f>
-        <v>824.60569333333342</v>
+        <f t="shared" ref="I20:I28" si="16">R2/1000000</f>
+        <v>2075.3933333333334</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="5"/>
-        <v>29.773333333333333</v>
+        <f t="shared" si="15"/>
+        <v>67.333333333333329</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>23</v>
@@ -6693,10 +6872,12 @@
         <v>11</v>
       </c>
       <c r="T20" s="1">
-        <v>29.773333333333333</v>
+        <f t="shared" ref="T20:T27" si="17">T3</f>
+        <v>111.53093333333332</v>
       </c>
       <c r="U20" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" ref="U20:U27" si="18">$O$14</f>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6706,26 +6887,26 @@
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="e">
-        <f t="shared" ref="C21:C29" si="7">F2</f>
-        <v>#DIV/0!</v>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:C29" si="19">F2</f>
+        <v>64333.333333333336</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
-        <v>457.91386666666665</v>
+        <f t="shared" si="16"/>
+        <v>1115.3093333333331</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="5"/>
-        <v>35.656666666666666</v>
+        <f t="shared" si="15"/>
+        <v>98.166666666666671</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>23</v>
@@ -6734,36 +6915,38 @@
         <v>12</v>
       </c>
       <c r="T21" s="1">
-        <v>35.656666666666666</v>
+        <f t="shared" si="17"/>
+        <v>85.562066666666681</v>
       </c>
       <c r="U21" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C22" s="1">
+        <f t="shared" si="19"/>
+        <v>55666.666666666664</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
-        <v>289.1042533333333</v>
+        <f t="shared" si="16"/>
+        <v>855.62066666666669</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="5"/>
-        <v>39.65</v>
+        <f t="shared" si="15"/>
+        <v>55.666666666666664</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>24</v>
@@ -6772,19 +6955,21 @@
         <v>10</v>
       </c>
       <c r="T22" s="1">
-        <v>39.65</v>
+        <f t="shared" si="17"/>
+        <v>167.75200000000001</v>
       </c>
       <c r="U22" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C23" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -6793,8 +6978,8 @@
         <v>7</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
-        <v>1152.97172</v>
+        <f t="shared" si="16"/>
+        <v>1677.52</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>14</v>
@@ -6803,8 +6988,8 @@
         <v>8</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="5"/>
-        <v>27.806666666666668</v>
+        <f t="shared" si="15"/>
+        <v>76.5</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>24</v>
@@ -6813,10 +6998,12 @@
         <v>11</v>
       </c>
       <c r="T23" s="1">
-        <v>27.806666666666668</v>
+        <f t="shared" si="17"/>
+        <v>126.7146</v>
       </c>
       <c r="U23" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6826,26 +7013,26 @@
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C24" s="1">
+        <f t="shared" si="19"/>
+        <v>67333.333333333328</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
-        <v>427.66653333333335</v>
+        <f t="shared" si="16"/>
+        <v>1267.146</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>37.653333333333336</v>
+        <f t="shared" si="15"/>
+        <v>114.83333333333333</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>24</v>
@@ -6854,36 +7041,38 @@
         <v>12</v>
       </c>
       <c r="T24" s="1">
-        <v>37.653333333333336</v>
+        <f t="shared" si="17"/>
+        <v>100.08873333333332</v>
       </c>
       <c r="U24" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="1">
+        <f t="shared" si="19"/>
+        <v>76500</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
-        <v>305.29322666666667</v>
+        <f t="shared" si="16"/>
+        <v>1000.8873333333332</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="5"/>
-        <v>58.596666666666664</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>25</v>
@@ -6892,19 +7081,21 @@
         <v>10</v>
       </c>
       <c r="T25" s="1">
-        <v>58.596666666666664</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C26" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>15</v>
@@ -6913,18 +7104,18 @@
         <v>7</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
-        <v>1753.4466533333332</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="5"/>
-        <v>74.553333333333327</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>25</v>
@@ -6933,10 +7124,12 @@
         <v>11</v>
       </c>
       <c r="T26" s="1">
-        <v>74.553333333333327</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -6946,26 +7139,26 @@
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C27" s="1">
+        <f t="shared" si="19"/>
+        <v>98166.666666666672</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
-        <v>1146.6302666666666</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="5"/>
-        <v>91.85</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>25</v>
@@ -6974,35 +7167,37 @@
         <v>12</v>
       </c>
       <c r="T27" s="1">
-        <v>91.85</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>26.056666666666668</v>
+        <f t="shared" si="18"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C28" s="1">
+        <f t="shared" si="19"/>
+        <v>114833.33333333333</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
-        <v>744.71979999999996</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C29" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="18:21" x14ac:dyDescent="0.25">
@@ -7028,11 +7223,11 @@
       </c>
       <c r="T35" s="1">
         <f>T49</f>
-        <v>824.60569333333342</v>
+        <v>207.53933333333336</v>
       </c>
       <c r="U35" s="1">
         <f>U49</f>
-        <v>3051.9652533333333</v>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="36" spans="18:21" x14ac:dyDescent="0.25">
@@ -7044,11 +7239,11 @@
       </c>
       <c r="T36" s="1">
         <f>T52</f>
-        <v>609.81700000000001</v>
+        <v>167.75200000000001</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" ref="U36:U43" si="8">U50</f>
-        <v>3051.9652533333333</v>
+        <f t="shared" ref="U36:U42" si="20">U50</f>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="37" spans="18:21" x14ac:dyDescent="0.25">
@@ -7060,11 +7255,11 @@
       </c>
       <c r="T37" s="1">
         <f>T55</f>
-        <v>475.10177333333331</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" si="20"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="38" spans="18:21" x14ac:dyDescent="0.25">
@@ -7076,11 +7271,11 @@
       </c>
       <c r="T38" s="1">
         <f>T50</f>
-        <v>890.93722666666667</v>
+        <v>111.53093333333332</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" si="20"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="39" spans="18:21" x14ac:dyDescent="0.25">
@@ -7092,11 +7287,11 @@
       </c>
       <c r="T39" s="1">
         <f>T53</f>
-        <v>427.66653333333335</v>
+        <v>126.7146</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" si="20"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="40" spans="18:21" x14ac:dyDescent="0.25">
@@ -7108,11 +7303,11 @@
       </c>
       <c r="T40" s="1">
         <f>T56</f>
-        <v>604.47842666666668</v>
+        <v>0</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" si="20"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="41" spans="18:21" x14ac:dyDescent="0.25">
@@ -7124,11 +7319,11 @@
       </c>
       <c r="T41" s="1">
         <f>T51</f>
-        <v>1066.9900933333333</v>
+        <v>85.562066666666681</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" si="20"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="42" spans="18:21" x14ac:dyDescent="0.25">
@@ -7140,11 +7335,11 @@
       </c>
       <c r="T42" s="1">
         <f>T54</f>
-        <v>579.10826666666674</v>
+        <v>100.08873333333332</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" si="20"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="43" spans="18:21" x14ac:dyDescent="0.25">
@@ -7156,11 +7351,11 @@
       </c>
       <c r="T43" s="1">
         <f>T57</f>
-        <v>744.71979999999996</v>
+        <v>0</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="8"/>
-        <v>3051.9652533333333</v>
+        <f t="shared" ref="U36:U43" si="21">U57</f>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="48" spans="18:21" x14ac:dyDescent="0.25">
@@ -7184,33 +7379,39 @@
       <c r="S49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T49" s="1">
-        <v>824.60569333333342</v>
+      <c r="T49" s="2">
+        <f>T19</f>
+        <v>207.53933333333336</v>
       </c>
       <c r="U49" s="1">
-        <v>3051.9652533333333</v>
+        <f>U19</f>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="50" spans="18:21" x14ac:dyDescent="0.25">
       <c r="S50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T50" s="1">
-        <v>890.93722666666667</v>
+      <c r="T50" s="2">
+        <f t="shared" ref="T50:U57" si="22">T20</f>
+        <v>111.53093333333332</v>
       </c>
       <c r="U50" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="51" spans="18:21" x14ac:dyDescent="0.25">
       <c r="S51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T51" s="1">
-        <v>1066.9900933333333</v>
+      <c r="T51" s="2">
+        <f t="shared" si="22"/>
+        <v>85.562066666666681</v>
       </c>
       <c r="U51" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="52" spans="18:21" x14ac:dyDescent="0.25">
@@ -7220,33 +7421,39 @@
       <c r="S52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T52" s="1">
-        <v>609.81700000000001</v>
+      <c r="T52" s="2">
+        <f t="shared" si="22"/>
+        <v>167.75200000000001</v>
       </c>
       <c r="U52" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="53" spans="18:21" x14ac:dyDescent="0.25">
       <c r="S53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T53" s="1">
-        <v>427.66653333333335</v>
+      <c r="T53" s="2">
+        <f t="shared" si="22"/>
+        <v>126.7146</v>
       </c>
       <c r="U53" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="54" spans="18:21" x14ac:dyDescent="0.25">
       <c r="S54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T54" s="1">
-        <v>579.10826666666674</v>
+      <c r="T54" s="2">
+        <f t="shared" si="22"/>
+        <v>100.08873333333332</v>
       </c>
       <c r="U54" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="55" spans="18:21" x14ac:dyDescent="0.25">
@@ -7256,33 +7463,39 @@
       <c r="S55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T55" s="1">
-        <v>475.10177333333331</v>
+      <c r="T55" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="U55" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="56" spans="18:21" x14ac:dyDescent="0.25">
       <c r="S56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T56" s="1">
-        <v>604.47842666666668</v>
+      <c r="T56" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
     <row r="57" spans="18:21" x14ac:dyDescent="0.25">
       <c r="S57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T57" s="1">
-        <v>744.71979999999996</v>
+      <c r="T57" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="U57" s="1">
-        <v>3051.9652533333333</v>
+        <f t="shared" si="22"/>
+        <v>758.25600000000009</v>
       </c>
     </row>
   </sheetData>

--- a/additional_experiments/cifar_dirichlet_server8/results.xlsx
+++ b/additional_experiments/cifar_dirichlet_server8/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Documents\GitHub\FLSim\additional_experiments\cifar_dirichlet_server8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F42CB-B13F-4FB3-A5D7-AB6E5B0DBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE2882D-3AA2-406E-BB8A-6CF4ACB853F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0480BD0-FD3B-47B3-8709-724D203C8353}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
   <si>
     <t>server qsgd bits</t>
   </si>
@@ -1244,13 +1244,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>207.53933333333336</c:v>
+                  <c:v>64.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.53093333333332</c:v>
+                  <c:v>67.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.562066666666681</c:v>
+                  <c:v>98.166666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,13 +1309,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>167.75200000000001</c:v>
+                  <c:v>55.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.7146</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.08873333333332</c:v>
+                  <c:v>114.83333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,13 +1440,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,35 +1766,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$41:$R$43</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$R$41:$R$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$R$41:$R$42</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8-bit qsgd client</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4-bit qsgd client</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2-bit qsgd client</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$35:$T$37</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$T$35:$T$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$T$35:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>207.53933333333336</c:v>
+                  <c:v>64.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.75200000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>55.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,35 +1846,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$41:$R$43</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$R$41:$R$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$R$41:$R$42</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8-bit qsgd client</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4-bit qsgd client</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2-bit qsgd client</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$38:$T$40</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$T$38:$T$40</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$T$38:$T$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>111.53093333333332</c:v>
+                  <c:v>67.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.7146</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,35 +1919,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$41:$R$43</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$R$41:$R$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$R$41:$R$42</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>8-bit qsgd client</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4-bit qsgd client</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2-bit qsgd client</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$41:$T$43</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$T$41:$T$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$T$41:$T$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>85.562066666666681</c:v>
+                  <c:v>98.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.08873333333332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>114.83333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,20 +2008,40 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>8-bit qsgd client</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4-bit qsgd client</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$35:$U$37</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$U$35:$U$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$U$35:$U$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>758.25600000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,7 +2153,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>MB Broadcasted</a:t>
+                  <a:t>Client uploads (thousands)</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -2333,13 +2377,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>207.53933333333336</c:v>
+                  <c:v>64.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.53093333333332</c:v>
+                  <c:v>67.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.562066666666681</c:v>
+                  <c:v>98.166666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,13 +2449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>167.75200000000001</c:v>
+                  <c:v>55.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.7146</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.08873333333332</c:v>
+                  <c:v>114.83333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2536,13 +2580,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>758.25600000000009</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6004,8 +6048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A108EE6-3E1B-4A89-A28E-C5695062FD69}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L18" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6712,6 +6756,9 @@
       <c r="O13" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -6752,6 +6799,10 @@
         <f>N14/10</f>
         <v>758.25600000000009</v>
       </c>
+      <c r="P14" s="1">
+        <f>K14/1000</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -6827,12 +6878,12 @@
         <v>10</v>
       </c>
       <c r="T19" s="1">
-        <f>T2</f>
-        <v>207.53933333333336</v>
+        <f>U2</f>
+        <v>64.333333333333343</v>
       </c>
       <c r="U19" s="1">
-        <f>$O$14</f>
-        <v>758.25600000000009</v>
+        <f>$P$14</f>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -6872,12 +6923,12 @@
         <v>11</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" ref="T20:T27" si="17">T3</f>
-        <v>111.53093333333332</v>
+        <f t="shared" ref="T20:T27" si="17">U3</f>
+        <v>67.333333333333329</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20:U27" si="18">$O$14</f>
-        <v>758.25600000000009</v>
+        <f t="shared" ref="U20:U27" si="18">$P$14</f>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -6916,11 +6967,11 @@
       </c>
       <c r="T21" s="1">
         <f t="shared" si="17"/>
-        <v>85.562066666666681</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -6956,11 +7007,11 @@
       </c>
       <c r="T22" s="1">
         <f t="shared" si="17"/>
-        <v>167.75200000000001</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6999,11 +7050,11 @@
       </c>
       <c r="T23" s="1">
         <f t="shared" si="17"/>
-        <v>126.7146</v>
+        <v>76.5</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -7042,11 +7093,11 @@
       </c>
       <c r="T24" s="1">
         <f t="shared" si="17"/>
-        <v>100.08873333333332</v>
+        <v>114.83333333333333</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -7086,7 +7137,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -7129,7 +7180,7 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -7172,7 +7223,7 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" si="18"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -7223,11 +7274,11 @@
       </c>
       <c r="T35" s="1">
         <f>T49</f>
-        <v>207.53933333333336</v>
+        <v>64.333333333333343</v>
       </c>
       <c r="U35" s="1">
         <f>U49</f>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="18:21" x14ac:dyDescent="0.25">
@@ -7239,11 +7290,11 @@
       </c>
       <c r="T36" s="1">
         <f>T52</f>
-        <v>167.75200000000001</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ref="U36:U42" si="20">U50</f>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="18:21" x14ac:dyDescent="0.25">
@@ -7259,7 +7310,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="20"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="18:21" x14ac:dyDescent="0.25">
@@ -7271,11 +7322,11 @@
       </c>
       <c r="T38" s="1">
         <f>T50</f>
-        <v>111.53093333333332</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="20"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="18:21" x14ac:dyDescent="0.25">
@@ -7287,11 +7338,11 @@
       </c>
       <c r="T39" s="1">
         <f>T53</f>
-        <v>126.7146</v>
+        <v>76.5</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="20"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="18:21" x14ac:dyDescent="0.25">
@@ -7307,7 +7358,7 @@
       </c>
       <c r="U40" s="1">
         <f t="shared" si="20"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="18:21" x14ac:dyDescent="0.25">
@@ -7319,11 +7370,11 @@
       </c>
       <c r="T41" s="1">
         <f>T51</f>
-        <v>85.562066666666681</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="20"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="18:21" x14ac:dyDescent="0.25">
@@ -7335,11 +7386,11 @@
       </c>
       <c r="T42" s="1">
         <f>T54</f>
-        <v>100.08873333333332</v>
+        <v>114.83333333333333</v>
       </c>
       <c r="U42" s="1">
         <f t="shared" si="20"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="18:21" x14ac:dyDescent="0.25">
@@ -7354,8 +7405,8 @@
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" ref="U36:U43" si="21">U57</f>
-        <v>758.25600000000009</v>
+        <f t="shared" ref="U43" si="21">U57</f>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="18:21" x14ac:dyDescent="0.25">
@@ -7381,11 +7432,11 @@
       </c>
       <c r="T49" s="2">
         <f>T19</f>
-        <v>207.53933333333336</v>
+        <v>64.333333333333343</v>
       </c>
       <c r="U49" s="1">
         <f>U19</f>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="18:21" x14ac:dyDescent="0.25">
@@ -7394,11 +7445,11 @@
       </c>
       <c r="T50" s="2">
         <f t="shared" ref="T50:U57" si="22">T20</f>
-        <v>111.53093333333332</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="U50" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="18:21" x14ac:dyDescent="0.25">
@@ -7407,11 +7458,11 @@
       </c>
       <c r="T51" s="2">
         <f t="shared" si="22"/>
-        <v>85.562066666666681</v>
+        <v>98.166666666666671</v>
       </c>
       <c r="U51" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="18:21" x14ac:dyDescent="0.25">
@@ -7423,11 +7474,11 @@
       </c>
       <c r="T52" s="2">
         <f t="shared" si="22"/>
-        <v>167.75200000000001</v>
+        <v>55.666666666666664</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="18:21" x14ac:dyDescent="0.25">
@@ -7436,11 +7487,11 @@
       </c>
       <c r="T53" s="2">
         <f t="shared" si="22"/>
-        <v>126.7146</v>
+        <v>76.5</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="18:21" x14ac:dyDescent="0.25">
@@ -7449,11 +7500,11 @@
       </c>
       <c r="T54" s="2">
         <f t="shared" si="22"/>
-        <v>100.08873333333332</v>
+        <v>114.83333333333333</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="18:21" x14ac:dyDescent="0.25">
@@ -7469,7 +7520,7 @@
       </c>
       <c r="U55" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="18:21" x14ac:dyDescent="0.25">
@@ -7482,7 +7533,7 @@
       </c>
       <c r="U56" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="18:21" x14ac:dyDescent="0.25">
@@ -7495,7 +7546,7 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" si="22"/>
-        <v>758.25600000000009</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
